--- a/src/main/resources/template/excel/export/PurStateTrack.xlsx
+++ b/src/main/resources/template/excel/export/PurStateTrack.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
